--- a/controllers/roundTwo/quizFile.xlsx
+++ b/controllers/roundTwo/quizFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aryan\visionQuestBackend\controllers\roundTwo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB10FD1A-6C41-4E8E-B649-001D69782D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB7FCEE-EBA5-4484-AD9F-0402F7C71C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2880" yWindow="864" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -587,7 +587,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -646,7 +646,7 @@
     </row>
     <row r="2" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>16</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="3" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>19</v>
